--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N2">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q2">
-        <v>34.21896502888242</v>
+        <v>57.521545444648</v>
       </c>
       <c r="R2">
-        <v>34.21896502888242</v>
+        <v>517.693909001832</v>
       </c>
       <c r="S2">
-        <v>0.0002985649595165956</v>
+        <v>0.0003718943996213124</v>
       </c>
       <c r="T2">
-        <v>0.0002985649595165956</v>
+        <v>0.0003718943996213125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N3">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q3">
-        <v>33.16087597140546</v>
+        <v>57.691408221472</v>
       </c>
       <c r="R3">
-        <v>33.16087597140546</v>
+        <v>519.222673993248</v>
       </c>
       <c r="S3">
-        <v>0.0002893329936653807</v>
+        <v>0.0003729926144713594</v>
       </c>
       <c r="T3">
-        <v>0.0002893329936653807</v>
+        <v>0.0003729926144713595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N4">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q4">
-        <v>22.93132242507389</v>
+        <v>40.77129489864399</v>
       </c>
       <c r="R4">
-        <v>22.93132242507389</v>
+        <v>366.9416540877959</v>
       </c>
       <c r="S4">
-        <v>0.0002000787968229147</v>
+        <v>0.0002635989023053182</v>
       </c>
       <c r="T4">
-        <v>0.0002000787968229147</v>
+        <v>0.0002635989023053182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N5">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q5">
-        <v>16.67307475464794</v>
+        <v>62.70060572631199</v>
       </c>
       <c r="R5">
-        <v>16.67307475464794</v>
+        <v>564.3054515368079</v>
       </c>
       <c r="S5">
-        <v>0.0001454747647959829</v>
+        <v>0.0004053786097405526</v>
       </c>
       <c r="T5">
-        <v>0.0001454747647959829</v>
+        <v>0.0004053786097405527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N6">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q6">
-        <v>1.130237374147012</v>
+        <v>2.08104713662</v>
       </c>
       <c r="R6">
-        <v>1.130237374147012</v>
+        <v>18.72942422958</v>
       </c>
       <c r="S6">
-        <v>9.861469380255164E-06</v>
+        <v>1.34546067821089E-05</v>
       </c>
       <c r="T6">
-        <v>9.861469380255164E-06</v>
+        <v>1.34546067821089E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N7">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q7">
-        <v>187.5431324957633</v>
+        <v>192.7960017489256</v>
       </c>
       <c r="R7">
-        <v>187.5431324957633</v>
+        <v>1735.16401574033</v>
       </c>
       <c r="S7">
-        <v>0.001636338437294982</v>
+        <v>0.001246485169436235</v>
       </c>
       <c r="T7">
-        <v>0.001636338437294982</v>
+        <v>0.001246485169436236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N8">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q8">
-        <v>181.7440869626436</v>
+        <v>193.3653338829022</v>
       </c>
       <c r="R8">
-        <v>181.7440869626436</v>
+        <v>1740.28800494612</v>
       </c>
       <c r="S8">
-        <v>0.001585741004164863</v>
+        <v>0.001250166075964627</v>
       </c>
       <c r="T8">
-        <v>0.001585741004164863</v>
+        <v>0.001250166075964627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N9">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q9">
-        <v>125.6791967915681</v>
+        <v>136.6538847630405</v>
       </c>
       <c r="R9">
-        <v>125.6791967915681</v>
+        <v>1229.884962867365</v>
       </c>
       <c r="S9">
-        <v>0.001096567481526144</v>
+        <v>0.0008835091970672969</v>
       </c>
       <c r="T9">
-        <v>0.001096567481526144</v>
+        <v>0.0008835091970672968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N10">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q10">
-        <v>91.37975579283113</v>
+        <v>210.1547515426411</v>
       </c>
       <c r="R10">
-        <v>91.37975579283113</v>
+        <v>1891.39276388377</v>
       </c>
       <c r="S10">
-        <v>0.0007973003586138581</v>
+        <v>0.001358714800660636</v>
       </c>
       <c r="T10">
-        <v>0.0007973003586138581</v>
+        <v>0.001358714800660636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N11">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q11">
-        <v>6.194467232787594</v>
+        <v>6.975083236897222</v>
       </c>
       <c r="R11">
-        <v>6.194467232787594</v>
+        <v>62.775749132075</v>
       </c>
       <c r="S11">
-        <v>5.404753934033607E-05</v>
+        <v>4.509604831794253E-05</v>
       </c>
       <c r="T11">
-        <v>5.404753934033607E-05</v>
+        <v>4.509604831794253E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N12">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q12">
-        <v>28564.25565870426</v>
+        <v>28649.52875682267</v>
       </c>
       <c r="R12">
-        <v>28564.25565870426</v>
+        <v>257845.758811404</v>
       </c>
       <c r="S12">
-        <v>0.2492268783455155</v>
+        <v>0.1852279735200236</v>
       </c>
       <c r="T12">
-        <v>0.2492268783455155</v>
+        <v>0.1852279735200236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N13">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q13">
-        <v>27681.01660334595</v>
+        <v>28734.13163860748</v>
       </c>
       <c r="R13">
-        <v>27681.01660334595</v>
+        <v>258607.1847474673</v>
       </c>
       <c r="S13">
-        <v>0.2415205017036752</v>
+        <v>0.1857749570491408</v>
       </c>
       <c r="T13">
-        <v>0.2415205017036752</v>
+        <v>0.1857749570491408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N14">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q14">
-        <v>19141.90437347022</v>
+        <v>20306.79768115098</v>
       </c>
       <c r="R14">
-        <v>19141.90437347022</v>
+        <v>182761.1791303588</v>
       </c>
       <c r="S14">
-        <v>0.1670156271386895</v>
+        <v>0.1312896632641807</v>
       </c>
       <c r="T14">
-        <v>0.1670156271386895</v>
+        <v>0.1312896632641807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N15">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q15">
-        <v>13917.83677579</v>
+        <v>31229.0428384746</v>
       </c>
       <c r="R15">
-        <v>13917.83677579</v>
+        <v>281061.3855462714</v>
       </c>
       <c r="S15">
-        <v>0.1214349519342561</v>
+        <v>0.2019053216909588</v>
       </c>
       <c r="T15">
-        <v>0.1214349519342561</v>
+        <v>0.2019053216909588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N16">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q16">
-        <v>943.4648091462821</v>
+        <v>1036.498920952506</v>
       </c>
       <c r="R16">
-        <v>943.4648091462821</v>
+        <v>9328.49028857255</v>
       </c>
       <c r="S16">
-        <v>0.008231854245455307</v>
+        <v>0.006701282813875362</v>
       </c>
       <c r="T16">
-        <v>0.008231854245455307</v>
+        <v>0.006701282813875362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N17">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q17">
-        <v>7020.296711510519</v>
+        <v>10917.96468177302</v>
       </c>
       <c r="R17">
-        <v>7020.296711510519</v>
+        <v>98261.68213595715</v>
       </c>
       <c r="S17">
-        <v>0.06125300989370932</v>
+        <v>0.07058798384201716</v>
       </c>
       <c r="T17">
-        <v>0.06125300989370932</v>
+        <v>0.07058798384201717</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N18">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q18">
-        <v>6803.221206029243</v>
+        <v>10950.20574525238</v>
       </c>
       <c r="R18">
-        <v>6803.221206029243</v>
+        <v>98551.85170727147</v>
       </c>
       <c r="S18">
-        <v>0.05935899762737228</v>
+        <v>0.0707964321869482</v>
       </c>
       <c r="T18">
-        <v>0.05935899762737228</v>
+        <v>0.07079643218694821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N19">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q19">
-        <v>4704.545776748508</v>
+        <v>7738.65782451721</v>
       </c>
       <c r="R19">
-        <v>4704.545776748508</v>
+        <v>69647.92042065489</v>
       </c>
       <c r="S19">
-        <v>0.04104777915385022</v>
+        <v>0.05003279177005101</v>
       </c>
       <c r="T19">
-        <v>0.04104777915385022</v>
+        <v>0.05003279177005101</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N20">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q20">
-        <v>3420.615783441384</v>
+        <v>11900.98411914876</v>
       </c>
       <c r="R20">
-        <v>3420.615783441384</v>
+        <v>107108.8570723388</v>
       </c>
       <c r="S20">
-        <v>0.02984532150645118</v>
+        <v>0.07694350542359084</v>
       </c>
       <c r="T20">
-        <v>0.02984532150645118</v>
+        <v>0.07694350542359085</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N21">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q21">
-        <v>231.8773146485692</v>
+        <v>394.9963263867077</v>
       </c>
       <c r="R21">
-        <v>231.8773146485692</v>
+        <v>3554.96693748037</v>
       </c>
       <c r="S21">
-        <v>0.002023159993367224</v>
+        <v>0.002553772165171832</v>
       </c>
       <c r="T21">
-        <v>0.002023159993367224</v>
+        <v>0.002553772165171832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H22">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N22">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q22">
-        <v>468.9892784368206</v>
+        <v>482.5984446823545</v>
       </c>
       <c r="R22">
-        <v>468.9892784368206</v>
+        <v>4343.38600214119</v>
       </c>
       <c r="S22">
-        <v>0.004091992987281178</v>
+        <v>0.003120146676448909</v>
       </c>
       <c r="T22">
-        <v>0.004091992987281178</v>
+        <v>0.00312014667644891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H23">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N23">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q23">
-        <v>454.4876001081753</v>
+        <v>484.0235717590177</v>
       </c>
       <c r="R23">
-        <v>454.4876001081753</v>
+        <v>4356.21214583116</v>
       </c>
       <c r="S23">
-        <v>0.003965463941196348</v>
+        <v>0.003129360559255131</v>
       </c>
       <c r="T23">
-        <v>0.003965463941196348</v>
+        <v>0.003129360559255132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H24">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N24">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q24">
-        <v>314.2860793323277</v>
+        <v>342.0659746477994</v>
       </c>
       <c r="R24">
-        <v>314.2860793323277</v>
+        <v>3078.593771830195</v>
       </c>
       <c r="S24">
-        <v>0.002742187277531187</v>
+        <v>0.00221156123830047</v>
       </c>
       <c r="T24">
-        <v>0.002742187277531187</v>
+        <v>0.00221156123830047</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H25">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N25">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q25">
-        <v>228.5134366835901</v>
+        <v>526.0501012316788</v>
       </c>
       <c r="R25">
-        <v>228.5134366835901</v>
+        <v>4734.45091108511</v>
       </c>
       <c r="S25">
-        <v>0.001993809716771041</v>
+        <v>0.003401074937330085</v>
       </c>
       <c r="T25">
-        <v>0.001993809716771041</v>
+        <v>0.003401074937330086</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H26">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N26">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q26">
-        <v>15.49050972512263</v>
+        <v>17.45972059130278</v>
       </c>
       <c r="R26">
-        <v>15.49050972512263</v>
+        <v>157.137485321725</v>
       </c>
       <c r="S26">
-        <v>0.0001351567297569934</v>
+        <v>0.0001128824383396771</v>
       </c>
       <c r="T26">
-        <v>0.0001351567297569934</v>
+        <v>0.0001128824383396771</v>
       </c>
     </row>
   </sheetData>
